--- a/Data/manual_cofactor.xlsx
+++ b/Data/manual_cofactor.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C44758B-8C58-5541-93AB-D6764147A9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA5AD7-4497-DE4C-885B-BAB578463155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{FE2480F6-62C1-A640-9E92-4F15B23206E6}"/>
+    <workbookView xWindow="8080" yWindow="460" windowWidth="23000" windowHeight="20540" activeTab="4" xr2:uid="{FE2480F6-62C1-A640-9E92-4F15B23206E6}"/>
   </bookViews>
   <sheets>
     <sheet name="BRENDA" sheetId="2" r:id="rId1"/>
     <sheet name="ZN" sheetId="1" r:id="rId2"/>
+    <sheet name="CU" sheetId="11" r:id="rId3"/>
+    <sheet name="FE" sheetId="4" r:id="rId4"/>
+    <sheet name="Exclude" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="836">
   <si>
     <t>YOL086C</t>
   </si>
@@ -1798,9 +1803,6 @@
     <t>YHL009W-B</t>
   </si>
   <si>
-    <t>CU</t>
-  </si>
-  <si>
     <t>MN</t>
   </si>
   <si>
@@ -2152,12 +2154,6 @@
     <t>BRENDA-EC3.2.1.28 (PMID: 6430270) (copy assumed to be 1)</t>
   </si>
   <si>
-    <t>YDR400W</t>
-  </si>
-  <si>
-    <t>BRENDA-EC3.2.2.3 (PMID: 357896) (copy assumed to be 1)</t>
-  </si>
-  <si>
     <t>BRENDA-EC3.4.11.15 (PMID: 6758786) (copy assumed to be 1)</t>
   </si>
   <si>
@@ -2204,6 +2200,351 @@
   </si>
   <si>
     <t>BRENDA-EC4.3.2.3 (PMID: 24107613) (copy assumed to be 1)</t>
+  </si>
+  <si>
+    <t>Q0045</t>
+  </si>
+  <si>
+    <t>YMR058W</t>
+  </si>
+  <si>
+    <t>Q0250</t>
+  </si>
+  <si>
+    <t>YFL041W</t>
+  </si>
+  <si>
+    <t>YHR053C</t>
+  </si>
+  <si>
+    <t>YHR055C</t>
+  </si>
+  <si>
+    <t>YLL009C</t>
+  </si>
+  <si>
+    <t>YMR038C</t>
+  </si>
+  <si>
+    <t>YDL171C</t>
+  </si>
+  <si>
+    <t>YDR091C</t>
+  </si>
+  <si>
+    <t>YDR234W</t>
+  </si>
+  <si>
+    <t>YDR256C</t>
+  </si>
+  <si>
+    <t>YDR402C</t>
+  </si>
+  <si>
+    <t>YEL024W</t>
+  </si>
+  <si>
+    <t>YER171W</t>
+  </si>
+  <si>
+    <t>YGL009C</t>
+  </si>
+  <si>
+    <t>YGL055W</t>
+  </si>
+  <si>
+    <t>YGL091C</t>
+  </si>
+  <si>
+    <t>YGR060W</t>
+  </si>
+  <si>
+    <t>YGR088W</t>
+  </si>
+  <si>
+    <t>YGR234W</t>
+  </si>
+  <si>
+    <t>YGR286C</t>
+  </si>
+  <si>
+    <t>YHR007C</t>
+  </si>
+  <si>
+    <t>YJL026W</t>
+  </si>
+  <si>
+    <t>YJL200C</t>
+  </si>
+  <si>
+    <t>YJR016C</t>
+  </si>
+  <si>
+    <t>YJR048W</t>
+  </si>
+  <si>
+    <t>YJR078W</t>
+  </si>
+  <si>
+    <t>YJR137C</t>
+  </si>
+  <si>
+    <t>YKL045W</t>
+  </si>
+  <si>
+    <t>YKL220C</t>
+  </si>
+  <si>
+    <t>YKR066C</t>
+  </si>
+  <si>
+    <t>YLL041C</t>
+  </si>
+  <si>
+    <t>YLR056W</t>
+  </si>
+  <si>
+    <t>YLR214W</t>
+  </si>
+  <si>
+    <t>YLR304C</t>
+  </si>
+  <si>
+    <t>YML054C</t>
+  </si>
+  <si>
+    <t>YMR015C</t>
+  </si>
+  <si>
+    <t>YOL043C</t>
+  </si>
+  <si>
+    <t>YOR196C</t>
+  </si>
+  <si>
+    <t>YOR226C</t>
+  </si>
+  <si>
+    <t>YOR381W</t>
+  </si>
+  <si>
+    <t>YPL086C</t>
+  </si>
+  <si>
+    <t>YPL135W</t>
+  </si>
+  <si>
+    <t>YPL207W</t>
+  </si>
+  <si>
+    <t>YPL252C</t>
+  </si>
+  <si>
+    <t>CU_II</t>
+  </si>
+  <si>
+    <t>CU_I</t>
+  </si>
+  <si>
+    <t>YNL240C</t>
+  </si>
+  <si>
+    <t>HEME_A</t>
+  </si>
+  <si>
+    <t>YEL039C</t>
+  </si>
+  <si>
+    <t>FE_III</t>
+  </si>
+  <si>
+    <t>YER070W</t>
+  </si>
+  <si>
+    <t>YIL066C</t>
+  </si>
+  <si>
+    <t>YGR180C</t>
+  </si>
+  <si>
+    <t>YDR297W</t>
+  </si>
+  <si>
+    <t>YMR272C</t>
+  </si>
+  <si>
+    <t>PMID: 30578666</t>
+  </si>
+  <si>
+    <t>YLL051C</t>
+  </si>
+  <si>
+    <t>YOR384W</t>
+  </si>
+  <si>
+    <t>YNR060W</t>
+  </si>
+  <si>
+    <t>HEME_B</t>
+  </si>
+  <si>
+    <t>PMID: 30578666 (ferrohaem b)</t>
+  </si>
+  <si>
+    <t>ISC_2FE2S</t>
+  </si>
+  <si>
+    <t>ISC_4FE4S</t>
+  </si>
+  <si>
+    <t>ISC_3FE4S</t>
+  </si>
+  <si>
+    <t>YPL059W</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>does not constitute holo cluster (PMID: 30578666)</t>
+  </si>
+  <si>
+    <t>YBR213W</t>
+  </si>
+  <si>
+    <t>conflicting data (PMID: 30578666)</t>
+  </si>
+  <si>
+    <t>YKL040C</t>
+  </si>
+  <si>
+    <t>YNL111C</t>
+  </si>
+  <si>
+    <t>YAL039C</t>
+  </si>
+  <si>
+    <t>YKL087C</t>
+  </si>
+  <si>
+    <t>YMR073C</t>
+  </si>
+  <si>
+    <t>YLR144C</t>
+  </si>
+  <si>
+    <t>DINUCLEAR COPPER ION PDBid:6hu9</t>
+  </si>
+  <si>
+    <t>PMID: 31531508</t>
+  </si>
+  <si>
+    <t>YIL003W</t>
+  </si>
+  <si>
+    <t>YKR071C</t>
+  </si>
+  <si>
+    <t>YIL103W</t>
+  </si>
+  <si>
+    <t>FE_II</t>
+  </si>
+  <si>
+    <t>YMR300C</t>
+  </si>
+  <si>
+    <t>YJR025C</t>
+  </si>
+  <si>
+    <t>YDR098C</t>
+  </si>
+  <si>
+    <t>YER174C</t>
+  </si>
+  <si>
+    <t>YGL220W</t>
+  </si>
+  <si>
+    <t>YHR164C</t>
+  </si>
+  <si>
+    <t>YPL008W</t>
+  </si>
+  <si>
+    <t>YER049W</t>
+  </si>
+  <si>
+    <t>YIR018W</t>
+  </si>
+  <si>
+    <t>YDL120W</t>
+  </si>
+  <si>
+    <t>YLL027W</t>
+  </si>
+  <si>
+    <t>YPR067W</t>
+  </si>
+  <si>
+    <t>YJR122W</t>
+  </si>
+  <si>
+    <t>YAL044W-A</t>
+  </si>
+  <si>
+    <t>YAL046C</t>
+  </si>
+  <si>
+    <t>Fe4S4 assembly (PMID: 31531508)</t>
+  </si>
+  <si>
+    <t>Fe4S4 transfer (PMID: 31531508)</t>
+  </si>
+  <si>
+    <t>Fe4S4 chaperone (PMID: 31531508)</t>
+  </si>
+  <si>
+    <t>YKL141W</t>
+  </si>
+  <si>
+    <t>YGR255C</t>
+  </si>
+  <si>
+    <t>YOR125C</t>
+  </si>
+  <si>
+    <t>YOR065W</t>
+  </si>
+  <si>
+    <t>HEME_C</t>
+  </si>
+  <si>
+    <t>YER141W</t>
+  </si>
+  <si>
+    <t>YPL172C</t>
+  </si>
+  <si>
+    <t>Heme A synthase (PMID: 31531508)</t>
+  </si>
+  <si>
+    <t>Heme O synthase (PMID: 31531508)</t>
+  </si>
+  <si>
+    <t>YLR203C</t>
+  </si>
+  <si>
+    <t>YGL010W</t>
+  </si>
+  <si>
+    <t>YPL170W</t>
+  </si>
+  <si>
+    <t>YLR205C</t>
+  </si>
+  <si>
+    <t>YDL010W</t>
   </si>
 </sst>
 </file>
@@ -2562,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D8ACB-61DE-3746-AEB1-E83B2B83E5EE}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2592,13 +2933,13 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>590</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,181 +2947,181 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>592</v>
-      </c>
-      <c r="B4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>594</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>596</v>
-      </c>
-      <c r="B7" t="s">
-        <v>594</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>599</v>
-      </c>
-      <c r="B8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>606</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>604</v>
-      </c>
-      <c r="B12" t="s">
-        <v>590</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>608</v>
-      </c>
-      <c r="B13" t="s">
-        <v>590</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>610</v>
+      </c>
+      <c r="B15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>611</v>
-      </c>
-      <c r="B15" t="s">
-        <v>590</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,13 +3129,13 @@
         <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,377 +3143,377 @@
         <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>615</v>
-      </c>
-      <c r="B18" t="s">
-        <v>590</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>616</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>617</v>
-      </c>
-      <c r="B19" t="s">
-        <v>590</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B21" t="s">
         <v>619</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>620</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>622</v>
-      </c>
-      <c r="B22" t="s">
-        <v>590</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>624</v>
-      </c>
-      <c r="B23" t="s">
-        <v>590</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>626</v>
-      </c>
-      <c r="B24" t="s">
-        <v>590</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>628</v>
-      </c>
-      <c r="B25" t="s">
-        <v>590</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>629</v>
+      </c>
+      <c r="B26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>630</v>
-      </c>
-      <c r="B26" t="s">
-        <v>590</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>631</v>
+      </c>
+      <c r="B27" t="s">
+        <v>589</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>632</v>
-      </c>
-      <c r="B27" t="s">
-        <v>590</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B28" t="s">
+        <v>589</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>634</v>
-      </c>
-      <c r="B28" t="s">
-        <v>590</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B29" t="s">
+        <v>589</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>636</v>
-      </c>
-      <c r="B29" t="s">
-        <v>590</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>637</v>
+      </c>
+      <c r="B30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>638</v>
-      </c>
-      <c r="B30" t="s">
-        <v>590</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>640</v>
-      </c>
-      <c r="B31" t="s">
-        <v>590</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>641</v>
+      </c>
+      <c r="B32" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>642</v>
-      </c>
-      <c r="B32" t="s">
-        <v>589</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>644</v>
+      </c>
+      <c r="B34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>645</v>
-      </c>
-      <c r="B34" t="s">
-        <v>590</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>646</v>
+      </c>
+      <c r="B35" t="s">
+        <v>589</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>647</v>
-      </c>
-      <c r="B35" t="s">
-        <v>590</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>648</v>
+      </c>
+      <c r="B36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>649</v>
-      </c>
-      <c r="B36" t="s">
-        <v>590</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" t="s">
+        <v>650</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>649</v>
-      </c>
-      <c r="B37" t="s">
-        <v>651</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>651</v>
+      </c>
+      <c r="B38" t="s">
+        <v>589</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>652</v>
-      </c>
-      <c r="B38" t="s">
-        <v>590</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>653</v>
+      </c>
+      <c r="B39" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>654</v>
-      </c>
-      <c r="B39" t="s">
-        <v>590</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>655</v>
+      </c>
+      <c r="B40" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>656</v>
-      </c>
-      <c r="B40" t="s">
-        <v>590</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>655</v>
+      </c>
+      <c r="B41" t="s">
+        <v>650</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>656</v>
-      </c>
-      <c r="B41" t="s">
-        <v>651</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>657</v>
+      </c>
+      <c r="B42" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>658</v>
-      </c>
-      <c r="B42" t="s">
-        <v>590</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>657</v>
+      </c>
+      <c r="B43" t="s">
+        <v>650</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>658</v>
-      </c>
-      <c r="B43" t="s">
-        <v>651</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3180,13 +3521,13 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3194,125 +3535,125 @@
         <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>661</v>
+      </c>
+      <c r="B47" t="s">
+        <v>589</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>662</v>
-      </c>
-      <c r="B47" t="s">
-        <v>590</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>664</v>
+      </c>
+      <c r="B49" t="s">
+        <v>589</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>665</v>
-      </c>
-      <c r="B49" t="s">
-        <v>590</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>667</v>
+      </c>
+      <c r="B51" t="s">
+        <v>589</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>668</v>
-      </c>
-      <c r="B51" t="s">
-        <v>590</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>669</v>
+      </c>
+      <c r="B52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>670</v>
-      </c>
-      <c r="B52" t="s">
-        <v>590</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>671</v>
+      </c>
+      <c r="B53" t="s">
+        <v>581</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>672</v>
-      </c>
-      <c r="B53" t="s">
-        <v>581</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3320,125 +3661,125 @@
         <v>555</v>
       </c>
       <c r="B54" t="s">
+        <v>673</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
         <v>674</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>676</v>
+      </c>
+      <c r="B56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>677</v>
-      </c>
-      <c r="B56" t="s">
-        <v>651</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>678</v>
+      </c>
+      <c r="B57" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>679</v>
-      </c>
-      <c r="B57" t="s">
-        <v>594</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>680</v>
+      </c>
+      <c r="B58" t="s">
+        <v>593</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>681</v>
-      </c>
-      <c r="B58" t="s">
-        <v>594</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B59" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>683</v>
+      </c>
+      <c r="B60" t="s">
+        <v>593</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>684</v>
-      </c>
-      <c r="B60" t="s">
-        <v>594</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>685</v>
+      </c>
+      <c r="B61" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>686</v>
-      </c>
-      <c r="B61" t="s">
-        <v>594</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>687</v>
+      </c>
+      <c r="B62" t="s">
+        <v>593</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>688</v>
-      </c>
-      <c r="B62" t="s">
-        <v>594</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3446,13 +3787,13 @@
         <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3460,175 +3801,175 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>690</v>
+      </c>
+      <c r="B65" t="s">
+        <v>588</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>691</v>
-      </c>
-      <c r="B65" t="s">
-        <v>589</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>692</v>
+      </c>
+      <c r="B66" t="s">
+        <v>593</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>693</v>
-      </c>
-      <c r="B66" t="s">
-        <v>594</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>695</v>
+      </c>
+      <c r="B68" t="s">
+        <v>619</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>696</v>
-      </c>
-      <c r="B68" t="s">
-        <v>620</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>697</v>
+      </c>
+      <c r="B69" t="s">
+        <v>588</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>698</v>
-      </c>
-      <c r="B69" t="s">
-        <v>589</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>699</v>
+      </c>
+      <c r="B70" t="s">
+        <v>619</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>700</v>
-      </c>
-      <c r="B70" t="s">
-        <v>620</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>701</v>
+      </c>
+      <c r="B71" t="s">
+        <v>619</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>702</v>
-      </c>
-      <c r="B71" t="s">
-        <v>620</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>703</v>
+      </c>
+      <c r="B72" t="s">
+        <v>619</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>704</v>
-      </c>
-      <c r="B72" t="s">
-        <v>620</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>706</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>707</v>
       </c>
       <c r="B75" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>709</v>
+      </c>
+      <c r="B76" t="s">
         <v>710</v>
-      </c>
-      <c r="B76" t="s">
-        <v>620</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3642,35 +3983,35 @@
         <v>712</v>
       </c>
       <c r="B77" t="s">
+        <v>673</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>713</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>714</v>
+      </c>
+      <c r="B78" t="s">
+        <v>593</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>715</v>
-      </c>
-      <c r="B78" t="s">
-        <v>674</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>716</v>
+      </c>
+      <c r="B79" t="s">
         <v>717</v>
-      </c>
-      <c r="B79" t="s">
-        <v>594</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3684,27 +4025,13 @@
         <v>719</v>
       </c>
       <c r="B80" t="s">
+        <v>673</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
         <v>720</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>722</v>
-      </c>
-      <c r="B81" t="s">
-        <v>674</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -3716,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BF9743-FCCA-4942-A0D9-3D65854B61D6}">
   <dimension ref="A1:D581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D572" sqref="D572"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11863,4 +12190,2225 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECF87CC-24BB-F140-833B-A175905AAB67}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B9" t="s">
+        <v>768</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>768</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B15" t="s">
+        <v>767</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>798</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C5E03A-F301-394B-B9C5-C857AE223E17}">
+  <dimension ref="A1:D129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>737</v>
+      </c>
+      <c r="B13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>758</v>
+      </c>
+      <c r="B16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>732</v>
+      </c>
+      <c r="B18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B19" t="s">
+        <v>770</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>748</v>
+      </c>
+      <c r="B20" t="s">
+        <v>770</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>733</v>
+      </c>
+      <c r="B21" t="s">
+        <v>770</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>755</v>
+      </c>
+      <c r="B22" t="s">
+        <v>770</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>751</v>
+      </c>
+      <c r="B23" t="s">
+        <v>770</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" t="s">
+        <v>770</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>780</v>
+      </c>
+      <c r="B25" t="s">
+        <v>770</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>781</v>
+      </c>
+      <c r="B27" t="s">
+        <v>770</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>757</v>
+      </c>
+      <c r="B28" t="s">
+        <v>782</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>752</v>
+      </c>
+      <c r="B29" t="s">
+        <v>782</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>736</v>
+      </c>
+      <c r="B30" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>731</v>
+      </c>
+      <c r="B31" t="s">
+        <v>785</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>756</v>
+      </c>
+      <c r="B32" t="s">
+        <v>785</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>746</v>
+      </c>
+      <c r="B33" t="s">
+        <v>785</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>729</v>
+      </c>
+      <c r="B34" t="s">
+        <v>785</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>749</v>
+      </c>
+      <c r="B35" t="s">
+        <v>785</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>738</v>
+      </c>
+      <c r="B36" t="s">
+        <v>785</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>769</v>
+      </c>
+      <c r="B37" t="s">
+        <v>785</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>753</v>
+      </c>
+      <c r="B38" t="s">
+        <v>785</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>753</v>
+      </c>
+      <c r="B39" t="s">
+        <v>786</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>753</v>
+      </c>
+      <c r="B40" t="s">
+        <v>784</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>742</v>
+      </c>
+      <c r="B41" t="s">
+        <v>785</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>742</v>
+      </c>
+      <c r="B42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>734</v>
+      </c>
+      <c r="B43" t="s">
+        <v>784</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>766</v>
+      </c>
+      <c r="B44" t="s">
+        <v>784</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>745</v>
+      </c>
+      <c r="B45" t="s">
+        <v>785</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>763</v>
+      </c>
+      <c r="B46" t="s">
+        <v>785</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>759</v>
+      </c>
+      <c r="B47" t="s">
+        <v>785</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>750</v>
+      </c>
+      <c r="B48" t="s">
+        <v>785</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>735</v>
+      </c>
+      <c r="B49" t="s">
+        <v>785</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>765</v>
+      </c>
+      <c r="B50" t="s">
+        <v>785</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>760</v>
+      </c>
+      <c r="B51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>730</v>
+      </c>
+      <c r="B52" t="s">
+        <v>785</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>793</v>
+      </c>
+      <c r="B53" t="s">
+        <v>770</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>794</v>
+      </c>
+      <c r="B54" t="s">
+        <v>770</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>795</v>
+      </c>
+      <c r="B55" t="s">
+        <v>770</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>770</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>796</v>
+      </c>
+      <c r="B57" t="s">
+        <v>770</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>741</v>
+      </c>
+      <c r="B58" t="s">
+        <v>782</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>755</v>
+      </c>
+      <c r="B59" t="s">
+        <v>782</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>800</v>
+      </c>
+      <c r="B60" t="s">
+        <v>784</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>738</v>
+      </c>
+      <c r="B61" t="s">
+        <v>784</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>801</v>
+      </c>
+      <c r="B62" t="s">
+        <v>784</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>801</v>
+      </c>
+      <c r="B63" t="s">
+        <v>785</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>769</v>
+      </c>
+      <c r="B64" t="s">
+        <v>785</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>802</v>
+      </c>
+      <c r="B65" t="s">
+        <v>785</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>692</v>
+      </c>
+      <c r="B66" t="s">
+        <v>785</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>375</v>
+      </c>
+      <c r="B67" t="s">
+        <v>803</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>803</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>763</v>
+      </c>
+      <c r="B69" t="s">
+        <v>785</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>736</v>
+      </c>
+      <c r="B70" t="s">
+        <v>785</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>729</v>
+      </c>
+      <c r="B71" t="s">
+        <v>785</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>790</v>
+      </c>
+      <c r="B72" t="s">
+        <v>803</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>749</v>
+      </c>
+      <c r="B73" t="s">
+        <v>785</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>804</v>
+      </c>
+      <c r="B74" t="s">
+        <v>785</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>805</v>
+      </c>
+      <c r="B75" t="s">
+        <v>803</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>765</v>
+      </c>
+      <c r="B76" t="s">
+        <v>785</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>806</v>
+      </c>
+      <c r="B77" t="s">
+        <v>784</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>807</v>
+      </c>
+      <c r="B78" t="s">
+        <v>784</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>808</v>
+      </c>
+      <c r="B79" t="s">
+        <v>784</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>740</v>
+      </c>
+      <c r="B80" t="s">
+        <v>782</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>732</v>
+      </c>
+      <c r="B81" t="s">
+        <v>782</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>741</v>
+      </c>
+      <c r="B82" t="s">
+        <v>782</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>752</v>
+      </c>
+      <c r="B83" t="s">
+        <v>782</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>759</v>
+      </c>
+      <c r="B84" t="s">
+        <v>785</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>809</v>
+      </c>
+      <c r="B85" t="s">
+        <v>785</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>735</v>
+      </c>
+      <c r="B86" t="s">
+        <v>785</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>810</v>
+      </c>
+      <c r="B87" t="s">
+        <v>785</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>750</v>
+      </c>
+      <c r="B88" t="s">
+        <v>785</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" t="s">
+        <v>785</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>785</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>409</v>
+      </c>
+      <c r="B91" t="s">
+        <v>785</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>425</v>
+      </c>
+      <c r="B92" t="s">
+        <v>785</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>811</v>
+      </c>
+      <c r="B93" t="s">
+        <v>803</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>784</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>311</v>
+      </c>
+      <c r="B95" t="s">
+        <v>784</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>812</v>
+      </c>
+      <c r="B96" t="s">
+        <v>784</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" t="s">
+        <v>782</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>813</v>
+      </c>
+      <c r="B98" t="s">
+        <v>803</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>766</v>
+      </c>
+      <c r="B99" t="s">
+        <v>784</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>787</v>
+      </c>
+      <c r="B100" t="s">
+        <v>784</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>817</v>
+      </c>
+      <c r="B101" t="s">
+        <v>784</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>818</v>
+      </c>
+      <c r="B102" t="s">
+        <v>784</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>731</v>
+      </c>
+      <c r="B103" t="s">
+        <v>785</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>746</v>
+      </c>
+      <c r="B104" t="s">
+        <v>785</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>756</v>
+      </c>
+      <c r="B105" t="s">
+        <v>785</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>745</v>
+      </c>
+      <c r="B106" t="s">
+        <v>785</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>822</v>
+      </c>
+      <c r="B107" t="s">
+        <v>782</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>823</v>
+      </c>
+      <c r="B108" t="s">
+        <v>782</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>824</v>
+      </c>
+      <c r="B109" t="s">
+        <v>772</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>825</v>
+      </c>
+      <c r="B110" t="s">
+        <v>826</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>734</v>
+      </c>
+      <c r="B111" t="s">
+        <v>784</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>721</v>
+      </c>
+      <c r="B112" t="s">
+        <v>770</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>831</v>
+      </c>
+      <c r="B113" t="s">
+        <v>782</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>747</v>
+      </c>
+      <c r="B114" t="s">
+        <v>826</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>771</v>
+      </c>
+      <c r="B115" t="s">
+        <v>826</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" t="s">
+        <v>782</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>779</v>
+      </c>
+      <c r="B117" t="s">
+        <v>782</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>737</v>
+      </c>
+      <c r="B118" t="s">
+        <v>772</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>776</v>
+      </c>
+      <c r="B119" t="s">
+        <v>772</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>793</v>
+      </c>
+      <c r="B120" t="s">
+        <v>782</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>777</v>
+      </c>
+      <c r="B121" t="s">
+        <v>772</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>832</v>
+      </c>
+      <c r="B122" t="s">
+        <v>803</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>743</v>
+      </c>
+      <c r="B123" t="s">
+        <v>782</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>739</v>
+      </c>
+      <c r="B124" t="s">
+        <v>772</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>754</v>
+      </c>
+      <c r="B125" t="s">
+        <v>772</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>758</v>
+      </c>
+      <c r="B126" t="s">
+        <v>782</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>833</v>
+      </c>
+      <c r="B127" t="s">
+        <v>782</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>834</v>
+      </c>
+      <c r="B128" t="s">
+        <v>782</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>835</v>
+      </c>
+      <c r="B129" t="s">
+        <v>784</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>799</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84AC442-3131-0E44-9382-31BCEDF2A65D}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" t="s">
+        <v>785</v>
+      </c>
+      <c r="C12" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C13" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>828</v>
+      </c>
+      <c r="B14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/manual_cofactor.xlsx
+++ b/Data/manual_cofactor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA5AD7-4497-DE4C-885B-BAB578463155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9381D0-993C-1448-8AB3-4C2A4CF5F013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="460" windowWidth="23000" windowHeight="20540" activeTab="4" xr2:uid="{FE2480F6-62C1-A640-9E92-4F15B23206E6}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="14720" windowHeight="17540" firstSheet="1" activeTab="2" xr2:uid="{FE2480F6-62C1-A640-9E92-4F15B23206E6}"/>
   </bookViews>
   <sheets>
     <sheet name="BRENDA" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="858">
   <si>
     <t>YOL086C</t>
   </si>
@@ -2388,9 +2388,6 @@
     <t>HEME_B</t>
   </si>
   <si>
-    <t>PMID: 30578666 (ferrohaem b)</t>
-  </si>
-  <si>
     <t>ISC_2FE2S</t>
   </si>
   <si>
@@ -2421,15 +2418,6 @@
     <t>YNL111C</t>
   </si>
   <si>
-    <t>YAL039C</t>
-  </si>
-  <si>
-    <t>YKL087C</t>
-  </si>
-  <si>
-    <t>YMR073C</t>
-  </si>
-  <si>
     <t>YLR144C</t>
   </si>
   <si>
@@ -2545,6 +2533,84 @@
   </si>
   <si>
     <t>YDL010W</t>
+  </si>
+  <si>
+    <t>involved in ISC biogenesis</t>
+  </si>
+  <si>
+    <t>PMID: 21987576</t>
+  </si>
+  <si>
+    <t>YOL152W</t>
+  </si>
+  <si>
+    <t>YLR047C</t>
+  </si>
+  <si>
+    <t>YDR178W</t>
+  </si>
+  <si>
+    <t>Q0105</t>
+  </si>
+  <si>
+    <t>YGL160W</t>
+  </si>
+  <si>
+    <t>YBR163W</t>
+  </si>
+  <si>
+    <t>UniProt</t>
+  </si>
+  <si>
+    <t>YDL244W</t>
+  </si>
+  <si>
+    <t>UniProt, copy assumed to be 1</t>
+  </si>
+  <si>
+    <t>YDR506C</t>
+  </si>
+  <si>
+    <t>YGR144W</t>
+  </si>
+  <si>
+    <t>YHL021C</t>
+  </si>
+  <si>
+    <t>YJR070C</t>
+  </si>
+  <si>
+    <t>YJR156C</t>
+  </si>
+  <si>
+    <t>YKL195W</t>
+  </si>
+  <si>
+    <t>YLL057C</t>
+  </si>
+  <si>
+    <t>YLR433C</t>
+  </si>
+  <si>
+    <t>YML057W</t>
+  </si>
+  <si>
+    <t>YMR009W</t>
+  </si>
+  <si>
+    <t>YNL332W</t>
+  </si>
+  <si>
+    <t>YOR356W</t>
+  </si>
+  <si>
+    <t>UniProt, type assumed to be FE_II, copy assumed to be 1</t>
+  </si>
+  <si>
+    <t>UniProt, type assumed to be FE_II</t>
+  </si>
+  <si>
+    <t>UniProt, type assumed to be CU_I</t>
   </si>
 </sst>
 </file>
@@ -2586,9 +2652,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4044,7 +4112,7 @@
   <dimension ref="A1:D581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12194,10 +12262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECF87CC-24BB-F140-833B-A175905AAB67}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12372,7 +12440,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B13" t="s">
         <v>768</v>
@@ -12409,7 +12477,49 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>798</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>843</v>
+      </c>
+      <c r="B16" t="s">
+        <v>768</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B17" t="s">
+        <v>767</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>728</v>
+      </c>
+      <c r="B18" t="s">
+        <v>767</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -12420,1836 +12530,1616 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C5E03A-F301-394B-B9C5-C857AE223E17}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="8.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B86" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>754</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>744</v>
-      </c>
-      <c r="B5" t="s">
-        <v>772</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>774</v>
-      </c>
-      <c r="B6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>775</v>
-      </c>
-      <c r="B7" t="s">
-        <v>772</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>776</v>
-      </c>
-      <c r="B8" t="s">
-        <v>772</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>776</v>
-      </c>
-      <c r="B9" t="s">
-        <v>770</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>777</v>
-      </c>
-      <c r="B10" t="s">
-        <v>772</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" t="s">
-        <v>770</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>737</v>
-      </c>
-      <c r="B12" t="s">
-        <v>772</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>737</v>
-      </c>
-      <c r="B13" t="s">
-        <v>770</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>747</v>
-      </c>
-      <c r="B14" t="s">
-        <v>770</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>771</v>
-      </c>
-      <c r="B15" t="s">
-        <v>770</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>758</v>
-      </c>
-      <c r="B16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>740</v>
-      </c>
-      <c r="B17" t="s">
-        <v>770</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>732</v>
-      </c>
-      <c r="B18" t="s">
-        <v>770</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>743</v>
-      </c>
-      <c r="B19" t="s">
-        <v>770</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>748</v>
-      </c>
-      <c r="B20" t="s">
-        <v>770</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>733</v>
-      </c>
-      <c r="B21" t="s">
-        <v>770</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>755</v>
-      </c>
-      <c r="B22" t="s">
-        <v>770</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>751</v>
-      </c>
-      <c r="B23" t="s">
-        <v>770</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>779</v>
-      </c>
-      <c r="B24" t="s">
-        <v>770</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>780</v>
-      </c>
-      <c r="B25" t="s">
-        <v>770</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>762</v>
-      </c>
-      <c r="B26" t="s">
-        <v>770</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>781</v>
-      </c>
-      <c r="B27" t="s">
-        <v>770</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>757</v>
-      </c>
-      <c r="B28" t="s">
-        <v>782</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>752</v>
-      </c>
-      <c r="B29" t="s">
-        <v>782</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>736</v>
-      </c>
-      <c r="B30" t="s">
-        <v>785</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>731</v>
-      </c>
-      <c r="B31" t="s">
-        <v>785</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>756</v>
-      </c>
-      <c r="B32" t="s">
-        <v>785</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>746</v>
-      </c>
-      <c r="B33" t="s">
-        <v>785</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>729</v>
-      </c>
-      <c r="B34" t="s">
-        <v>785</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>749</v>
-      </c>
-      <c r="B35" t="s">
-        <v>785</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>738</v>
-      </c>
-      <c r="B36" t="s">
-        <v>785</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>769</v>
-      </c>
-      <c r="B37" t="s">
-        <v>785</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>753</v>
-      </c>
-      <c r="B38" t="s">
-        <v>785</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>753</v>
-      </c>
-      <c r="B39" t="s">
-        <v>786</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>753</v>
-      </c>
-      <c r="B40" t="s">
-        <v>784</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>742</v>
-      </c>
-      <c r="B41" t="s">
-        <v>785</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>742</v>
-      </c>
-      <c r="B42" t="s">
-        <v>784</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>734</v>
-      </c>
-      <c r="B43" t="s">
-        <v>784</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>766</v>
-      </c>
-      <c r="B44" t="s">
-        <v>784</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>745</v>
-      </c>
-      <c r="B45" t="s">
-        <v>785</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>763</v>
-      </c>
-      <c r="B46" t="s">
-        <v>785</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>759</v>
-      </c>
-      <c r="B47" t="s">
-        <v>785</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>750</v>
-      </c>
-      <c r="B48" t="s">
-        <v>785</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>735</v>
-      </c>
-      <c r="B49" t="s">
-        <v>785</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>765</v>
-      </c>
-      <c r="B50" t="s">
-        <v>785</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>760</v>
-      </c>
-      <c r="B51" t="s">
-        <v>785</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>730</v>
-      </c>
-      <c r="B52" t="s">
-        <v>785</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>793</v>
-      </c>
-      <c r="B53" t="s">
-        <v>770</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>794</v>
-      </c>
-      <c r="B54" t="s">
-        <v>770</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>795</v>
-      </c>
-      <c r="B55" t="s">
-        <v>770</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" t="s">
-        <v>770</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>796</v>
-      </c>
-      <c r="B57" t="s">
-        <v>770</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>741</v>
-      </c>
-      <c r="B58" t="s">
-        <v>782</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>755</v>
-      </c>
-      <c r="B59" t="s">
-        <v>782</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>800</v>
-      </c>
-      <c r="B60" t="s">
-        <v>784</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>738</v>
-      </c>
-      <c r="B61" t="s">
-        <v>784</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>801</v>
-      </c>
-      <c r="B62" t="s">
-        <v>784</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>801</v>
-      </c>
-      <c r="B63" t="s">
-        <v>785</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>769</v>
-      </c>
-      <c r="B64" t="s">
-        <v>785</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>802</v>
-      </c>
-      <c r="B65" t="s">
-        <v>785</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>692</v>
-      </c>
-      <c r="B66" t="s">
-        <v>785</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>375</v>
-      </c>
-      <c r="B67" t="s">
-        <v>803</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>376</v>
-      </c>
-      <c r="B68" t="s">
-        <v>803</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>763</v>
-      </c>
-      <c r="B69" t="s">
-        <v>785</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>736</v>
-      </c>
-      <c r="B70" t="s">
-        <v>785</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>729</v>
-      </c>
-      <c r="B71" t="s">
-        <v>785</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>790</v>
-      </c>
-      <c r="B72" t="s">
-        <v>803</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>749</v>
-      </c>
-      <c r="B73" t="s">
-        <v>785</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>804</v>
-      </c>
-      <c r="B74" t="s">
-        <v>785</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>805</v>
-      </c>
-      <c r="B75" t="s">
-        <v>803</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>765</v>
-      </c>
-      <c r="B76" t="s">
-        <v>785</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>806</v>
-      </c>
-      <c r="B77" t="s">
-        <v>784</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>807</v>
-      </c>
-      <c r="B78" t="s">
-        <v>784</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>808</v>
-      </c>
-      <c r="B79" t="s">
-        <v>784</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>740</v>
-      </c>
-      <c r="B80" t="s">
-        <v>782</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>732</v>
-      </c>
-      <c r="B81" t="s">
-        <v>782</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>741</v>
-      </c>
-      <c r="B82" t="s">
-        <v>782</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>752</v>
-      </c>
-      <c r="B83" t="s">
-        <v>782</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>759</v>
-      </c>
-      <c r="B84" t="s">
-        <v>785</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>809</v>
-      </c>
-      <c r="B85" t="s">
-        <v>785</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>735</v>
-      </c>
-      <c r="B86" t="s">
-        <v>785</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>810</v>
-      </c>
-      <c r="B87" t="s">
-        <v>785</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>750</v>
-      </c>
-      <c r="B88" t="s">
-        <v>785</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" t="s">
-        <v>785</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" t="s">
-        <v>785</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>409</v>
-      </c>
-      <c r="B91" t="s">
-        <v>785</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>425</v>
-      </c>
-      <c r="B92" t="s">
-        <v>785</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>811</v>
-      </c>
-      <c r="B93" t="s">
-        <v>803</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" t="s">
-        <v>784</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>311</v>
-      </c>
-      <c r="B95" t="s">
-        <v>784</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>812</v>
-      </c>
-      <c r="B96" t="s">
-        <v>784</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>208</v>
-      </c>
-      <c r="B97" t="s">
-        <v>782</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>813</v>
-      </c>
-      <c r="B98" t="s">
-        <v>803</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>799</v>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>766</v>
-      </c>
-      <c r="B99" t="s">
+        <v>839</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>784</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>787</v>
-      </c>
-      <c r="B100" t="s">
-        <v>784</v>
+        <v>841</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>817</v>
-      </c>
-      <c r="B101" t="s">
-        <v>784</v>
+        <v>555</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>714</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>818</v>
-      </c>
-      <c r="B102" t="s">
-        <v>784</v>
-      </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>799</v>
+        <v>855</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>731</v>
-      </c>
-      <c r="B103" t="s">
-        <v>785</v>
+        <v>844</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>746</v>
-      </c>
-      <c r="B104" t="s">
-        <v>785</v>
+        <v>845</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>756</v>
-      </c>
-      <c r="B105" t="s">
-        <v>785</v>
+        <v>846</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>745</v>
-      </c>
-      <c r="B106" t="s">
-        <v>785</v>
+        <v>373</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>822</v>
-      </c>
-      <c r="B107" t="s">
-        <v>782</v>
+        <v>847</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>799</v>
+        <v>855</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>823</v>
-      </c>
-      <c r="B108" t="s">
-        <v>782</v>
+        <v>849</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>824</v>
-      </c>
-      <c r="B109" t="s">
+        <v>850</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>772</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>825</v>
-      </c>
-      <c r="B110" t="s">
-        <v>826</v>
+        <v>851</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>734</v>
-      </c>
-      <c r="B111" t="s">
-        <v>784</v>
+        <v>852</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>721</v>
-      </c>
-      <c r="B112" t="s">
-        <v>770</v>
+        <v>853</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>799</v>
+        <v>855</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>831</v>
-      </c>
-      <c r="B113" t="s">
-        <v>782</v>
+        <v>854</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>747</v>
-      </c>
-      <c r="B114" t="s">
-        <v>826</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>771</v>
-      </c>
-      <c r="B115" t="s">
-        <v>826</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" t="s">
-        <v>782</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>779</v>
-      </c>
-      <c r="B117" t="s">
-        <v>782</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>737</v>
-      </c>
-      <c r="B118" t="s">
-        <v>772</v>
-      </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>776</v>
-      </c>
-      <c r="B119" t="s">
-        <v>772</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>793</v>
-      </c>
-      <c r="B120" t="s">
-        <v>782</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>777</v>
-      </c>
-      <c r="B121" t="s">
-        <v>772</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>832</v>
-      </c>
-      <c r="B122" t="s">
-        <v>803</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>743</v>
-      </c>
-      <c r="B123" t="s">
-        <v>782</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>739</v>
-      </c>
-      <c r="B124" t="s">
-        <v>772</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>754</v>
-      </c>
-      <c r="B125" t="s">
-        <v>772</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>758</v>
-      </c>
-      <c r="B126" t="s">
-        <v>782</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>833</v>
-      </c>
-      <c r="B127" t="s">
-        <v>782</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>834</v>
-      </c>
-      <c r="B128" t="s">
-        <v>782</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>835</v>
-      </c>
-      <c r="B129" t="s">
-        <v>784</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84AC442-3131-0E44-9382-31BCEDF2A65D}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14262,18 +14152,18 @@
         <v>580</v>
       </c>
       <c r="C1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -14281,10 +14171,10 @@
         <v>764</v>
       </c>
       <c r="B3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14292,120 +14182,131 @@
         <v>761</v>
       </c>
       <c r="B4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C5" t="s">
         <v>790</v>
-      </c>
-      <c r="B5" t="s">
-        <v>784</v>
-      </c>
-      <c r="C5" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C7" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8" t="s">
+        <v>784</v>
+      </c>
+      <c r="C8" t="s">
         <v>815</v>
-      </c>
-      <c r="B8" t="s">
-        <v>785</v>
-      </c>
-      <c r="C8" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C9" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C10" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C12" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B13" t="s">
         <v>770</v>
       </c>
       <c r="C13" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B14" t="s">
         <v>782</v>
       </c>
       <c r="C14" t="s">
-        <v>830</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>766</v>
+      </c>
+      <c r="B15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C15" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
